--- a/Conception/modèle d'importation beneficiaire.xlsx
+++ b/Conception/modèle d'importation beneficiaire.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="171">
   <si>
     <t>Nom</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Prenom</t>
   </si>
   <si>
-    <t>Rakoto</t>
-  </si>
-  <si>
     <t>Sexe</t>
   </si>
   <si>
@@ -40,22 +37,496 @@
     <t>Date d'entrée</t>
   </si>
   <si>
-    <t>Masculin</t>
-  </si>
-  <si>
     <t>Responsable</t>
   </si>
   <si>
-    <t>02/04/2019</t>
-  </si>
-  <si>
     <t>N° Matricule (Unique)</t>
   </si>
   <si>
     <t>12/02/1972</t>
   </si>
   <si>
-    <t>Rabe</t>
+    <t>Feminin</t>
+  </si>
+  <si>
+    <t>12/02/1973</t>
+  </si>
+  <si>
+    <t>12/02/1974</t>
+  </si>
+  <si>
+    <t>12/02/1975</t>
+  </si>
+  <si>
+    <t>12/02/1976</t>
+  </si>
+  <si>
+    <t>Saint</t>
+  </si>
+  <si>
+    <t>Trinitaire</t>
+  </si>
+  <si>
+    <t>Saint 1</t>
+  </si>
+  <si>
+    <t>Trinitaire 1</t>
+  </si>
+  <si>
+    <t>Saint 2</t>
+  </si>
+  <si>
+    <t>Trinitaire 2</t>
+  </si>
+  <si>
+    <t>Saint 3</t>
+  </si>
+  <si>
+    <t>Trinitaire 3</t>
+  </si>
+  <si>
+    <t>Saint 4</t>
+  </si>
+  <si>
+    <t>Trinitaire 4</t>
+  </si>
+  <si>
+    <t>Saint 5</t>
+  </si>
+  <si>
+    <t>Trinitaire 5</t>
+  </si>
+  <si>
+    <t>Saint 6</t>
+  </si>
+  <si>
+    <t>Trinitaire 6</t>
+  </si>
+  <si>
+    <t>Saint 7</t>
+  </si>
+  <si>
+    <t>Trinitaire 7</t>
+  </si>
+  <si>
+    <t>Saint 8</t>
+  </si>
+  <si>
+    <t>Trinitaire 8</t>
+  </si>
+  <si>
+    <t>Saint 9</t>
+  </si>
+  <si>
+    <t>Trinitaire 9</t>
+  </si>
+  <si>
+    <t>Saint 10</t>
+  </si>
+  <si>
+    <t>Trinitaire 10</t>
+  </si>
+  <si>
+    <t>Saint 11</t>
+  </si>
+  <si>
+    <t>Trinitaire 11</t>
+  </si>
+  <si>
+    <t>Saint 12</t>
+  </si>
+  <si>
+    <t>Trinitaire 12</t>
+  </si>
+  <si>
+    <t>Saint 13</t>
+  </si>
+  <si>
+    <t>Trinitaire 13</t>
+  </si>
+  <si>
+    <t>Saint 14</t>
+  </si>
+  <si>
+    <t>Trinitaire 14</t>
+  </si>
+  <si>
+    <t>Saint 15</t>
+  </si>
+  <si>
+    <t>Trinitaire 15</t>
+  </si>
+  <si>
+    <t>Saint 16</t>
+  </si>
+  <si>
+    <t>Trinitaire 16</t>
+  </si>
+  <si>
+    <t>Saint 17</t>
+  </si>
+  <si>
+    <t>Trinitaire 17</t>
+  </si>
+  <si>
+    <t>Saint 18</t>
+  </si>
+  <si>
+    <t>Trinitaire 18</t>
+  </si>
+  <si>
+    <t>Saint 19</t>
+  </si>
+  <si>
+    <t>Trinitaire 19</t>
+  </si>
+  <si>
+    <t>Saint 20</t>
+  </si>
+  <si>
+    <t>Trinitaire 20</t>
+  </si>
+  <si>
+    <t>Saint 21</t>
+  </si>
+  <si>
+    <t>Trinitaire 21</t>
+  </si>
+  <si>
+    <t>Saint 22</t>
+  </si>
+  <si>
+    <t>Trinitaire 22</t>
+  </si>
+  <si>
+    <t>Saint 23</t>
+  </si>
+  <si>
+    <t>Trinitaire 23</t>
+  </si>
+  <si>
+    <t>Saint 24</t>
+  </si>
+  <si>
+    <t>Trinitaire 24</t>
+  </si>
+  <si>
+    <t>Saint 25</t>
+  </si>
+  <si>
+    <t>Trinitaire 25</t>
+  </si>
+  <si>
+    <t>Saint 26</t>
+  </si>
+  <si>
+    <t>Trinitaire 26</t>
+  </si>
+  <si>
+    <t>Saint 27</t>
+  </si>
+  <si>
+    <t>Trinitaire 27</t>
+  </si>
+  <si>
+    <t>Saint 28</t>
+  </si>
+  <si>
+    <t>Trinitaire 28</t>
+  </si>
+  <si>
+    <t>Saint 29</t>
+  </si>
+  <si>
+    <t>Trinitaire 29</t>
+  </si>
+  <si>
+    <t>Saint 30</t>
+  </si>
+  <si>
+    <t>Trinitaire 30</t>
+  </si>
+  <si>
+    <t>Saint 31</t>
+  </si>
+  <si>
+    <t>Trinitaire 31</t>
+  </si>
+  <si>
+    <t>Saint 32</t>
+  </si>
+  <si>
+    <t>Trinitaire 32</t>
+  </si>
+  <si>
+    <t>Saint 33</t>
+  </si>
+  <si>
+    <t>Trinitaire 33</t>
+  </si>
+  <si>
+    <t>Saint 34</t>
+  </si>
+  <si>
+    <t>Trinitaire 34</t>
+  </si>
+  <si>
+    <t>Saint 35</t>
+  </si>
+  <si>
+    <t>Trinitaire 35</t>
+  </si>
+  <si>
+    <t>Saint 36</t>
+  </si>
+  <si>
+    <t>Trinitaire 36</t>
+  </si>
+  <si>
+    <t>Saint 37</t>
+  </si>
+  <si>
+    <t>Trinitaire 37</t>
+  </si>
+  <si>
+    <t>Saint 38</t>
+  </si>
+  <si>
+    <t>Trinitaire 38</t>
+  </si>
+  <si>
+    <t>Saint 39</t>
+  </si>
+  <si>
+    <t>Trinitaire 39</t>
+  </si>
+  <si>
+    <t>Saint 40</t>
+  </si>
+  <si>
+    <t>Trinitaire 40</t>
+  </si>
+  <si>
+    <t>Saint 41</t>
+  </si>
+  <si>
+    <t>Trinitaire 41</t>
+  </si>
+  <si>
+    <t>Saint 42</t>
+  </si>
+  <si>
+    <t>Trinitaire 42</t>
+  </si>
+  <si>
+    <t>Saint 43</t>
+  </si>
+  <si>
+    <t>Trinitaire 43</t>
+  </si>
+  <si>
+    <t>Saint 44</t>
+  </si>
+  <si>
+    <t>Trinitaire 44</t>
+  </si>
+  <si>
+    <t>Saint 45</t>
+  </si>
+  <si>
+    <t>Trinitaire 45</t>
+  </si>
+  <si>
+    <t>Saint 46</t>
+  </si>
+  <si>
+    <t>Trinitaire 46</t>
+  </si>
+  <si>
+    <t>Saint 47</t>
+  </si>
+  <si>
+    <t>Trinitaire 47</t>
+  </si>
+  <si>
+    <t>Saint 48</t>
+  </si>
+  <si>
+    <t>Trinitaire 48</t>
+  </si>
+  <si>
+    <t>Saint 49</t>
+  </si>
+  <si>
+    <t>Trinitaire 49</t>
+  </si>
+  <si>
+    <t>Saint 50</t>
+  </si>
+  <si>
+    <t>Trinitaire 50</t>
+  </si>
+  <si>
+    <t>Saint 51</t>
+  </si>
+  <si>
+    <t>Trinitaire 51</t>
+  </si>
+  <si>
+    <t>Saint 52</t>
+  </si>
+  <si>
+    <t>Trinitaire 52</t>
+  </si>
+  <si>
+    <t>Saint 53</t>
+  </si>
+  <si>
+    <t>Trinitaire 53</t>
+  </si>
+  <si>
+    <t>Saint 54</t>
+  </si>
+  <si>
+    <t>Trinitaire 54</t>
+  </si>
+  <si>
+    <t>Saint 55</t>
+  </si>
+  <si>
+    <t>Trinitaire 55</t>
+  </si>
+  <si>
+    <t>Saint 56</t>
+  </si>
+  <si>
+    <t>Trinitaire 56</t>
+  </si>
+  <si>
+    <t>Saint 57</t>
+  </si>
+  <si>
+    <t>Trinitaire 57</t>
+  </si>
+  <si>
+    <t>Saint 58</t>
+  </si>
+  <si>
+    <t>Trinitaire 58</t>
+  </si>
+  <si>
+    <t>Saint 59</t>
+  </si>
+  <si>
+    <t>Trinitaire 59</t>
+  </si>
+  <si>
+    <t>Saint 60</t>
+  </si>
+  <si>
+    <t>Trinitaire 60</t>
+  </si>
+  <si>
+    <t>Saint 61</t>
+  </si>
+  <si>
+    <t>Trinitaire 61</t>
+  </si>
+  <si>
+    <t>Saint 62</t>
+  </si>
+  <si>
+    <t>Trinitaire 62</t>
+  </si>
+  <si>
+    <t>Saint 63</t>
+  </si>
+  <si>
+    <t>Trinitaire 63</t>
+  </si>
+  <si>
+    <t>Saint 64</t>
+  </si>
+  <si>
+    <t>Trinitaire 64</t>
+  </si>
+  <si>
+    <t>Saint 65</t>
+  </si>
+  <si>
+    <t>Trinitaire 65</t>
+  </si>
+  <si>
+    <t>Saint 66</t>
+  </si>
+  <si>
+    <t>Trinitaire 66</t>
+  </si>
+  <si>
+    <t>Saint 67</t>
+  </si>
+  <si>
+    <t>Trinitaire 67</t>
+  </si>
+  <si>
+    <t>Saint 68</t>
+  </si>
+  <si>
+    <t>Trinitaire 68</t>
+  </si>
+  <si>
+    <t>Saint 69</t>
+  </si>
+  <si>
+    <t>Trinitaire 69</t>
+  </si>
+  <si>
+    <t>Saint 70</t>
+  </si>
+  <si>
+    <t>Trinitaire 70</t>
+  </si>
+  <si>
+    <t>Saint 71</t>
+  </si>
+  <si>
+    <t>Trinitaire 71</t>
+  </si>
+  <si>
+    <t>Saint 72</t>
+  </si>
+  <si>
+    <t>Trinitaire 72</t>
+  </si>
+  <si>
+    <t>Saint 73</t>
+  </si>
+  <si>
+    <t>Trinitaire 73</t>
+  </si>
+  <si>
+    <t>Saint 74</t>
+  </si>
+  <si>
+    <t>Trinitaire 74</t>
+  </si>
+  <si>
+    <t>Saint 75</t>
+  </si>
+  <si>
+    <t>Trinitaire 75</t>
+  </si>
+  <si>
+    <t>Saint 76</t>
+  </si>
+  <si>
+    <t>Trinitaire 76</t>
+  </si>
+  <si>
+    <t>Saint 77</t>
+  </si>
+  <si>
+    <t>Trinitaire 77</t>
   </si>
 </sst>
 </file>
@@ -147,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -157,7 +628,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
@@ -466,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:H255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +955,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -494,1319 +964,2583 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>577</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="H2" s="12">
+        <v>40270</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="12">
+        <v>40271</v>
+      </c>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="8"/>
-      <c r="F4" s="11"/>
-      <c r="H4" s="10"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="12">
+        <v>40271</v>
+      </c>
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="8"/>
-      <c r="F5" s="11"/>
-      <c r="H5" s="10"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="12">
+        <v>40271</v>
+      </c>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="8"/>
-      <c r="F6" s="11"/>
-      <c r="H6" s="10"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="12">
+        <v>40271</v>
+      </c>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="8"/>
-      <c r="F7" s="11"/>
-      <c r="H7" s="10"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="12">
+        <v>40271</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="8"/>
-      <c r="F8" s="11"/>
-      <c r="H8" s="10"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="12">
+        <v>40271</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="8"/>
-      <c r="F9" s="11"/>
-      <c r="H9" s="10"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="12">
+        <v>40271</v>
+      </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="8"/>
-      <c r="F10" s="11"/>
-      <c r="H10" s="10"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="12">
+        <v>40271</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="8"/>
-      <c r="F11" s="11"/>
-      <c r="H11" s="10"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="12">
+        <v>40271</v>
+      </c>
     </row>
     <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="8"/>
-      <c r="F12" s="11"/>
-      <c r="H12" s="10"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="12">
+        <v>40271</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="8"/>
-      <c r="F13" s="11"/>
-      <c r="H13" s="10"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="12">
+        <v>40271</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="8"/>
-      <c r="F14" s="11"/>
-      <c r="H14" s="10"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="12">
+        <v>40271</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="8"/>
-      <c r="F15" s="11"/>
-      <c r="H15" s="10"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="12">
+        <v>40271</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="8"/>
-      <c r="F16" s="11"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="8"/>
-      <c r="F17" s="11"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="8"/>
-      <c r="F18" s="11"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="8"/>
-      <c r="F19" s="11"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="8"/>
-      <c r="F20" s="11"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="8"/>
-      <c r="F21" s="11"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="8"/>
-      <c r="F22" s="11"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="8"/>
-      <c r="F23" s="11"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="8"/>
-      <c r="F24" s="11"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="8"/>
-      <c r="F25" s="11"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="8"/>
-      <c r="F26" s="11"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="8"/>
-      <c r="F27" s="11"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="8"/>
-      <c r="F28" s="11"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="8"/>
-      <c r="F29" s="11"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="8"/>
-      <c r="F30" s="11"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="8"/>
-      <c r="F31" s="11"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="8"/>
-      <c r="F32" s="11"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="8"/>
-      <c r="F33" s="11"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="8"/>
-      <c r="F34" s="11"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="8"/>
-      <c r="F35" s="11"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="8"/>
-      <c r="F36" s="11"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="8"/>
-      <c r="F37" s="11"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="8"/>
-      <c r="F38" s="11"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="8"/>
-      <c r="F39" s="11"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="8"/>
-      <c r="F40" s="11"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="8"/>
-      <c r="F41" s="11"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="8"/>
-      <c r="F42" s="11"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="8"/>
-      <c r="F43" s="11"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="8"/>
-      <c r="F44" s="11"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="8"/>
-      <c r="F45" s="11"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="8"/>
-      <c r="F46" s="11"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="8"/>
-      <c r="F47" s="11"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="8"/>
-      <c r="F48" s="11"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="8"/>
-      <c r="F49" s="11"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="8"/>
-      <c r="F50" s="11"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="8"/>
-      <c r="F51" s="11"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="8"/>
-      <c r="F52" s="11"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="8"/>
-      <c r="F53" s="11"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="8"/>
-      <c r="F54" s="11"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="8"/>
-      <c r="F55" s="11"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="8"/>
-      <c r="F56" s="11"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="8"/>
-      <c r="F57" s="11"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="8"/>
-      <c r="F58" s="11"/>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="8"/>
-      <c r="F59" s="11"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="8"/>
-      <c r="F60" s="11"/>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="8"/>
-      <c r="F61" s="11"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="8"/>
-      <c r="F62" s="11"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="8"/>
-      <c r="F63" s="11"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="8"/>
-      <c r="F64" s="11"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="8"/>
-      <c r="F65" s="11"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="8"/>
-      <c r="F66" s="11"/>
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="8"/>
-      <c r="F67" s="11"/>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="8"/>
-      <c r="F68" s="11"/>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="8"/>
-      <c r="F69" s="11"/>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="8"/>
-      <c r="F70" s="11"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="8"/>
-      <c r="F71" s="11"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="8"/>
-      <c r="F72" s="11"/>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="8"/>
-      <c r="F73" s="11"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="8"/>
-      <c r="F74" s="11"/>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E75" s="8"/>
-      <c r="F75" s="11"/>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="8"/>
-      <c r="F76" s="11"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="8"/>
-      <c r="F77" s="11"/>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E78" s="8"/>
-      <c r="F78" s="11"/>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="8"/>
-      <c r="F79" s="11"/>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="12">
+        <v>40271</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="12">
+        <v>42007</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="6"/>
+      <c r="G76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="12">
+        <v>42007</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="6"/>
+      <c r="G77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="12">
+        <v>42008</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="6"/>
+      <c r="G78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="12">
+        <v>42009</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="12">
+        <v>42010</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E80" s="8"/>
-      <c r="F80" s="11"/>
-      <c r="H80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="H80" s="9"/>
     </row>
     <row r="81" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E81" s="8"/>
-      <c r="F81" s="11"/>
-      <c r="H81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="H81" s="9"/>
     </row>
     <row r="82" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E82" s="8"/>
-      <c r="F82" s="11"/>
-      <c r="H82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="H82" s="9"/>
     </row>
     <row r="83" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E83" s="8"/>
-      <c r="F83" s="11"/>
-      <c r="H83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="H83" s="9"/>
     </row>
     <row r="84" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E84" s="8"/>
-      <c r="F84" s="11"/>
-      <c r="H84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="H84" s="9"/>
     </row>
     <row r="85" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E85" s="8"/>
-      <c r="F85" s="11"/>
-      <c r="H85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="H85" s="9"/>
     </row>
     <row r="86" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E86" s="8"/>
-      <c r="F86" s="11"/>
-      <c r="H86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="H86" s="9"/>
     </row>
     <row r="87" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E87" s="8"/>
-      <c r="F87" s="11"/>
-      <c r="H87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="H87" s="9"/>
     </row>
     <row r="88" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E88" s="8"/>
-      <c r="F88" s="11"/>
-      <c r="H88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="H88" s="9"/>
     </row>
     <row r="89" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E89" s="8"/>
-      <c r="F89" s="11"/>
-      <c r="H89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E90" s="8"/>
-      <c r="F90" s="11"/>
-      <c r="H90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="H90" s="9"/>
     </row>
     <row r="91" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E91" s="8"/>
-      <c r="F91" s="11"/>
-      <c r="H91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="H91" s="9"/>
     </row>
     <row r="92" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E92" s="8"/>
-      <c r="F92" s="11"/>
-      <c r="H92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="H92" s="9"/>
     </row>
     <row r="93" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E93" s="8"/>
-      <c r="F93" s="11"/>
-      <c r="H93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="H93" s="9"/>
     </row>
     <row r="94" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E94" s="8"/>
-      <c r="F94" s="11"/>
-      <c r="H94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="H94" s="9"/>
     </row>
     <row r="95" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E95" s="8"/>
-      <c r="F95" s="11"/>
-      <c r="H95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="H95" s="9"/>
     </row>
     <row r="96" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E96" s="8"/>
-      <c r="F96" s="11"/>
-      <c r="H96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="H96" s="9"/>
     </row>
     <row r="97" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E97" s="8"/>
-      <c r="F97" s="11"/>
-      <c r="H97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="H97" s="9"/>
     </row>
     <row r="98" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E98" s="8"/>
-      <c r="F98" s="11"/>
-      <c r="H98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="H98" s="9"/>
     </row>
     <row r="99" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E99" s="8"/>
-      <c r="F99" s="11"/>
-      <c r="H99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="H99" s="9"/>
     </row>
     <row r="100" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E100" s="8"/>
-      <c r="F100" s="11"/>
-      <c r="H100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="H100" s="9"/>
     </row>
     <row r="101" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E101" s="8"/>
-      <c r="F101" s="11"/>
-      <c r="H101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="H101" s="9"/>
     </row>
     <row r="102" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E102" s="8"/>
-      <c r="F102" s="11"/>
-      <c r="H102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="H102" s="9"/>
     </row>
     <row r="103" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E103" s="8"/>
-      <c r="F103" s="11"/>
-      <c r="H103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="H103" s="9"/>
     </row>
     <row r="104" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E104" s="8"/>
-      <c r="F104" s="11"/>
-      <c r="H104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="H104" s="9"/>
     </row>
     <row r="105" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E105" s="8"/>
-      <c r="F105" s="11"/>
-      <c r="H105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="H105" s="9"/>
     </row>
     <row r="106" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E106" s="8"/>
-      <c r="F106" s="11"/>
-      <c r="H106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="H106" s="9"/>
     </row>
     <row r="107" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E107" s="8"/>
-      <c r="F107" s="11"/>
-      <c r="H107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="H107" s="9"/>
     </row>
     <row r="108" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E108" s="8"/>
-      <c r="F108" s="11"/>
-      <c r="H108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="H108" s="9"/>
     </row>
     <row r="109" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E109" s="8"/>
-      <c r="F109" s="11"/>
-      <c r="H109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="H109" s="9"/>
     </row>
     <row r="110" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E110" s="8"/>
-      <c r="F110" s="11"/>
-      <c r="H110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="H110" s="9"/>
     </row>
     <row r="111" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E111" s="8"/>
-      <c r="F111" s="11"/>
-      <c r="H111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="H111" s="9"/>
     </row>
     <row r="112" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E112" s="8"/>
-      <c r="F112" s="11"/>
-      <c r="H112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="H112" s="9"/>
     </row>
     <row r="113" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E113" s="8"/>
-      <c r="F113" s="11"/>
-      <c r="H113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="H113" s="9"/>
     </row>
     <row r="114" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E114" s="8"/>
-      <c r="F114" s="11"/>
-      <c r="H114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="H114" s="9"/>
     </row>
     <row r="115" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E115" s="8"/>
-      <c r="F115" s="11"/>
-      <c r="H115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="H115" s="9"/>
     </row>
     <row r="116" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E116" s="8"/>
-      <c r="F116" s="11"/>
-      <c r="H116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="H116" s="9"/>
     </row>
     <row r="117" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E117" s="8"/>
-      <c r="F117" s="11"/>
-      <c r="H117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E118" s="8"/>
-      <c r="F118" s="11"/>
-      <c r="H118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="H118" s="9"/>
     </row>
     <row r="119" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E119" s="8"/>
-      <c r="F119" s="11"/>
-      <c r="H119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="H119" s="9"/>
     </row>
     <row r="120" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E120" s="8"/>
-      <c r="F120" s="11"/>
-      <c r="H120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="H120" s="9"/>
     </row>
     <row r="121" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E121" s="8"/>
-      <c r="F121" s="11"/>
-      <c r="H121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="H121" s="9"/>
     </row>
     <row r="122" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E122" s="8"/>
-      <c r="F122" s="11"/>
-      <c r="H122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="H122" s="9"/>
     </row>
     <row r="123" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E123" s="8"/>
-      <c r="F123" s="11"/>
-      <c r="H123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="H123" s="9"/>
     </row>
     <row r="124" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E124" s="8"/>
-      <c r="F124" s="11"/>
-      <c r="H124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="H124" s="9"/>
     </row>
     <row r="125" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E125" s="8"/>
-      <c r="F125" s="11"/>
-      <c r="H125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="H125" s="9"/>
     </row>
     <row r="126" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E126" s="8"/>
-      <c r="F126" s="11"/>
-      <c r="H126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="H126" s="9"/>
     </row>
     <row r="127" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E127" s="8"/>
-      <c r="F127" s="11"/>
-      <c r="H127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="H127" s="9"/>
     </row>
     <row r="128" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E128" s="8"/>
-      <c r="F128" s="11"/>
-      <c r="H128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="H128" s="9"/>
     </row>
     <row r="129" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E129" s="8"/>
-      <c r="F129" s="11"/>
-      <c r="H129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="H129" s="9"/>
     </row>
     <row r="130" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E130" s="8"/>
-      <c r="F130" s="11"/>
-      <c r="H130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="H130" s="9"/>
     </row>
     <row r="131" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E131" s="8"/>
-      <c r="F131" s="11"/>
-      <c r="H131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="H131" s="9"/>
     </row>
     <row r="132" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E132" s="8"/>
-      <c r="F132" s="11"/>
-      <c r="H132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="H132" s="9"/>
     </row>
     <row r="133" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E133" s="8"/>
-      <c r="F133" s="11"/>
-      <c r="H133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="H133" s="9"/>
     </row>
     <row r="134" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E134" s="8"/>
-      <c r="F134" s="11"/>
-      <c r="H134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="H134" s="9"/>
     </row>
     <row r="135" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E135" s="8"/>
-      <c r="F135" s="11"/>
-      <c r="H135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="H135" s="9"/>
     </row>
     <row r="136" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E136" s="8"/>
-      <c r="F136" s="11"/>
-      <c r="H136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="H136" s="9"/>
     </row>
     <row r="137" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E137" s="8"/>
-      <c r="F137" s="11"/>
-      <c r="H137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="H137" s="9"/>
     </row>
     <row r="138" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E138" s="8"/>
-      <c r="F138" s="11"/>
-      <c r="H138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="H138" s="9"/>
     </row>
     <row r="139" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E139" s="8"/>
-      <c r="F139" s="11"/>
-      <c r="H139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="H139" s="9"/>
     </row>
     <row r="140" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E140" s="8"/>
-      <c r="F140" s="11"/>
-      <c r="H140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="H140" s="9"/>
     </row>
     <row r="141" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E141" s="8"/>
-      <c r="F141" s="11"/>
-      <c r="H141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="H141" s="9"/>
     </row>
     <row r="142" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E142" s="8"/>
-      <c r="F142" s="11"/>
-      <c r="H142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="H142" s="9"/>
     </row>
     <row r="143" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E143" s="8"/>
-      <c r="F143" s="11"/>
-      <c r="H143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="H143" s="9"/>
     </row>
     <row r="144" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E144" s="8"/>
-      <c r="F144" s="11"/>
-      <c r="H144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="H144" s="9"/>
     </row>
     <row r="145" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E145" s="8"/>
-      <c r="F145" s="11"/>
-      <c r="H145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="H145" s="9"/>
     </row>
     <row r="146" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E146" s="8"/>
-      <c r="F146" s="11"/>
-      <c r="H146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="H146" s="9"/>
     </row>
     <row r="147" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E147" s="8"/>
-      <c r="F147" s="11"/>
-      <c r="H147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="H147" s="9"/>
     </row>
     <row r="148" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E148" s="8"/>
-      <c r="F148" s="11"/>
-      <c r="H148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="H148" s="9"/>
     </row>
     <row r="149" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E149" s="8"/>
-      <c r="F149" s="11"/>
-      <c r="H149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="H149" s="9"/>
     </row>
     <row r="150" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E150" s="8"/>
-      <c r="F150" s="11"/>
-      <c r="H150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="H150" s="9"/>
     </row>
     <row r="151" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E151" s="8"/>
-      <c r="F151" s="11"/>
-      <c r="H151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="H151" s="9"/>
     </row>
     <row r="152" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E152" s="8"/>
-      <c r="F152" s="11"/>
-      <c r="H152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="H152" s="9"/>
     </row>
     <row r="153" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E153" s="8"/>
-      <c r="F153" s="11"/>
-      <c r="H153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="H153" s="9"/>
     </row>
     <row r="154" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E154" s="8"/>
-      <c r="F154" s="11"/>
-      <c r="H154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="H154" s="9"/>
     </row>
     <row r="155" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E155" s="8"/>
-      <c r="F155" s="11"/>
-      <c r="H155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="H155" s="9"/>
     </row>
     <row r="156" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E156" s="8"/>
-      <c r="F156" s="11"/>
-      <c r="H156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="H156" s="9"/>
     </row>
     <row r="157" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E157" s="8"/>
-      <c r="F157" s="11"/>
-      <c r="H157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="H157" s="9"/>
     </row>
     <row r="158" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E158" s="8"/>
-      <c r="F158" s="11"/>
-      <c r="H158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="H158" s="9"/>
     </row>
     <row r="159" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E159" s="8"/>
-      <c r="F159" s="11"/>
-      <c r="H159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="H159" s="9"/>
     </row>
     <row r="160" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E160" s="8"/>
-      <c r="F160" s="11"/>
-      <c r="H160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="H160" s="9"/>
     </row>
     <row r="161" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E161" s="8"/>
-      <c r="F161" s="11"/>
-      <c r="H161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="H161" s="9"/>
     </row>
     <row r="162" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E162" s="8"/>
-      <c r="F162" s="11"/>
-      <c r="H162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="H162" s="9"/>
     </row>
     <row r="163" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E163" s="8"/>
-      <c r="F163" s="11"/>
-      <c r="H163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="H163" s="9"/>
     </row>
     <row r="164" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E164" s="8"/>
-      <c r="F164" s="11"/>
-      <c r="H164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="H164" s="9"/>
     </row>
     <row r="165" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E165" s="8"/>
-      <c r="F165" s="11"/>
-      <c r="H165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="H165" s="9"/>
     </row>
     <row r="166" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E166" s="8"/>
-      <c r="F166" s="11"/>
-      <c r="H166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="H166" s="9"/>
     </row>
     <row r="167" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E167" s="8"/>
-      <c r="F167" s="11"/>
-      <c r="H167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="H167" s="9"/>
     </row>
     <row r="168" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E168" s="8"/>
-      <c r="F168" s="11"/>
-      <c r="H168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="H168" s="9"/>
     </row>
     <row r="169" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E169" s="8"/>
-      <c r="F169" s="11"/>
-      <c r="H169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="H169" s="9"/>
     </row>
     <row r="170" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E170" s="8"/>
-      <c r="F170" s="11"/>
-      <c r="H170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="H170" s="9"/>
     </row>
     <row r="171" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E171" s="8"/>
-      <c r="F171" s="11"/>
-      <c r="H171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="H171" s="9"/>
     </row>
     <row r="172" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E172" s="8"/>
-      <c r="F172" s="11"/>
-      <c r="H172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="H172" s="9"/>
     </row>
     <row r="173" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E173" s="8"/>
-      <c r="F173" s="11"/>
-      <c r="H173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="H173" s="9"/>
     </row>
     <row r="174" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E174" s="8"/>
-      <c r="F174" s="11"/>
-      <c r="H174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="H174" s="9"/>
     </row>
     <row r="175" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E175" s="8"/>
-      <c r="F175" s="11"/>
-      <c r="H175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="H175" s="9"/>
     </row>
     <row r="176" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E176" s="8"/>
-      <c r="F176" s="11"/>
-      <c r="H176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="H176" s="9"/>
     </row>
     <row r="177" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E177" s="8"/>
-      <c r="F177" s="11"/>
-      <c r="H177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="H177" s="9"/>
     </row>
     <row r="178" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E178" s="8"/>
-      <c r="F178" s="11"/>
-      <c r="H178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="H178" s="9"/>
     </row>
     <row r="179" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E179" s="8"/>
-      <c r="F179" s="11"/>
-      <c r="H179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="H179" s="9"/>
     </row>
     <row r="180" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E180" s="8"/>
-      <c r="F180" s="11"/>
-      <c r="H180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="H180" s="9"/>
     </row>
     <row r="181" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E181" s="8"/>
-      <c r="F181" s="11"/>
-      <c r="H181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="H181" s="9"/>
     </row>
     <row r="182" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E182" s="8"/>
-      <c r="F182" s="11"/>
-      <c r="H182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="H182" s="9"/>
     </row>
     <row r="183" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E183" s="8"/>
-      <c r="F183" s="11"/>
-      <c r="H183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="H183" s="9"/>
     </row>
     <row r="184" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E184" s="8"/>
-      <c r="F184" s="11"/>
-      <c r="H184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="H184" s="9"/>
     </row>
     <row r="185" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E185" s="8"/>
-      <c r="F185" s="11"/>
-      <c r="H185" s="10"/>
+      <c r="F185" s="10"/>
+      <c r="H185" s="9"/>
     </row>
     <row r="186" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E186" s="8"/>
-      <c r="F186" s="11"/>
-      <c r="H186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="H186" s="9"/>
     </row>
     <row r="187" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E187" s="8"/>
-      <c r="F187" s="11"/>
-      <c r="H187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="H187" s="9"/>
     </row>
     <row r="188" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E188" s="8"/>
-      <c r="F188" s="11"/>
-      <c r="H188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="H188" s="9"/>
     </row>
     <row r="189" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E189" s="8"/>
-      <c r="F189" s="11"/>
-      <c r="H189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="H189" s="9"/>
     </row>
     <row r="190" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E190" s="8"/>
-      <c r="F190" s="11"/>
-      <c r="H190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="H190" s="9"/>
     </row>
     <row r="191" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E191" s="8"/>
-      <c r="F191" s="11"/>
-      <c r="H191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="H191" s="9"/>
     </row>
     <row r="192" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E192" s="8"/>
-      <c r="F192" s="11"/>
-      <c r="H192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="H192" s="9"/>
     </row>
     <row r="193" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E193" s="8"/>
-      <c r="F193" s="11"/>
-      <c r="H193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="H193" s="9"/>
     </row>
     <row r="194" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E194" s="8"/>
-      <c r="F194" s="11"/>
-      <c r="H194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="H194" s="9"/>
     </row>
     <row r="195" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E195" s="8"/>
-      <c r="F195" s="11"/>
-      <c r="H195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="H195" s="9"/>
     </row>
     <row r="196" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E196" s="8"/>
-      <c r="F196" s="11"/>
-      <c r="H196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="H196" s="9"/>
     </row>
     <row r="197" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E197" s="8"/>
-      <c r="F197" s="11"/>
-      <c r="H197" s="10"/>
+      <c r="F197" s="10"/>
+      <c r="H197" s="9"/>
     </row>
     <row r="198" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E198" s="8"/>
-      <c r="F198" s="11"/>
-      <c r="H198" s="10"/>
+      <c r="F198" s="10"/>
+      <c r="H198" s="9"/>
     </row>
     <row r="199" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E199" s="8"/>
-      <c r="F199" s="11"/>
-      <c r="H199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="H199" s="9"/>
     </row>
     <row r="200" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E200" s="8"/>
-      <c r="F200" s="11"/>
-      <c r="H200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="H200" s="9"/>
     </row>
     <row r="201" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E201" s="8"/>
-      <c r="F201" s="11"/>
-      <c r="H201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="H201" s="9"/>
     </row>
     <row r="202" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E202" s="8"/>
-      <c r="F202" s="11"/>
-      <c r="H202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="H202" s="9"/>
     </row>
     <row r="203" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E203" s="8"/>
-      <c r="F203" s="11"/>
-      <c r="H203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="H203" s="9"/>
     </row>
     <row r="204" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E204" s="8"/>
-      <c r="F204" s="11"/>
-      <c r="H204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="H204" s="9"/>
     </row>
     <row r="205" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E205" s="8"/>
-      <c r="F205" s="11"/>
-      <c r="H205" s="10"/>
+      <c r="F205" s="10"/>
+      <c r="H205" s="9"/>
     </row>
     <row r="206" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E206" s="8"/>
-      <c r="F206" s="11"/>
-      <c r="H206" s="10"/>
+      <c r="F206" s="10"/>
+      <c r="H206" s="9"/>
     </row>
     <row r="207" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E207" s="8"/>
-      <c r="F207" s="11"/>
-      <c r="H207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="H207" s="9"/>
     </row>
     <row r="208" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E208" s="8"/>
-      <c r="F208" s="11"/>
-      <c r="H208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="H208" s="9"/>
     </row>
     <row r="209" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E209" s="8"/>
-      <c r="F209" s="11"/>
-      <c r="H209" s="10"/>
+      <c r="F209" s="10"/>
+      <c r="H209" s="9"/>
     </row>
     <row r="210" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E210" s="8"/>
-      <c r="F210" s="11"/>
-      <c r="H210" s="10"/>
+      <c r="F210" s="10"/>
+      <c r="H210" s="9"/>
     </row>
     <row r="211" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E211" s="8"/>
-      <c r="F211" s="11"/>
-      <c r="H211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="H211" s="9"/>
     </row>
     <row r="212" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E212" s="8"/>
-      <c r="F212" s="11"/>
-      <c r="H212" s="10"/>
+      <c r="F212" s="10"/>
+      <c r="H212" s="9"/>
     </row>
     <row r="213" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E213" s="8"/>
-      <c r="F213" s="11"/>
-      <c r="H213" s="10"/>
+      <c r="F213" s="10"/>
+      <c r="H213" s="9"/>
     </row>
     <row r="214" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E214" s="8"/>
-      <c r="F214" s="11"/>
-      <c r="H214" s="10"/>
+      <c r="F214" s="10"/>
+      <c r="H214" s="9"/>
     </row>
     <row r="215" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E215" s="8"/>
-      <c r="F215" s="11"/>
-      <c r="H215" s="10"/>
+      <c r="F215" s="10"/>
+      <c r="H215" s="9"/>
     </row>
     <row r="216" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E216" s="8"/>
-      <c r="F216" s="11"/>
-      <c r="H216" s="10"/>
+      <c r="F216" s="10"/>
+      <c r="H216" s="9"/>
     </row>
     <row r="217" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E217" s="8"/>
-      <c r="F217" s="11"/>
-      <c r="H217" s="10"/>
+      <c r="F217" s="10"/>
+      <c r="H217" s="9"/>
     </row>
     <row r="218" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E218" s="8"/>
-      <c r="F218" s="11"/>
-      <c r="H218" s="10"/>
+      <c r="F218" s="10"/>
+      <c r="H218" s="9"/>
     </row>
     <row r="219" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E219" s="8"/>
-      <c r="F219" s="11"/>
-      <c r="H219" s="10"/>
+      <c r="F219" s="10"/>
+      <c r="H219" s="9"/>
     </row>
     <row r="220" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E220" s="8"/>
-      <c r="F220" s="11"/>
-      <c r="H220" s="10"/>
+      <c r="F220" s="10"/>
+      <c r="H220" s="9"/>
     </row>
     <row r="221" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E221" s="8"/>
-      <c r="F221" s="11"/>
-      <c r="H221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="H221" s="9"/>
     </row>
     <row r="222" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E222" s="8"/>
-      <c r="F222" s="11"/>
-      <c r="H222" s="10"/>
+      <c r="F222" s="10"/>
+      <c r="H222" s="9"/>
     </row>
     <row r="223" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E223" s="8"/>
-      <c r="F223" s="11"/>
-      <c r="H223" s="10"/>
+      <c r="F223" s="10"/>
+      <c r="H223" s="9"/>
     </row>
     <row r="224" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E224" s="8"/>
-      <c r="F224" s="11"/>
-      <c r="H224" s="10"/>
+      <c r="F224" s="10"/>
+      <c r="H224" s="9"/>
     </row>
     <row r="225" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E225" s="8"/>
-      <c r="F225" s="11"/>
-      <c r="H225" s="10"/>
+      <c r="F225" s="10"/>
+      <c r="H225" s="9"/>
     </row>
     <row r="226" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E226" s="8"/>
-      <c r="F226" s="11"/>
-      <c r="H226" s="10"/>
+      <c r="F226" s="10"/>
+      <c r="H226" s="9"/>
     </row>
     <row r="227" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E227" s="8"/>
-      <c r="F227" s="11"/>
-      <c r="H227" s="10"/>
+      <c r="F227" s="10"/>
+      <c r="H227" s="9"/>
     </row>
     <row r="228" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E228" s="8"/>
-      <c r="F228" s="11"/>
-      <c r="H228" s="10"/>
+      <c r="F228" s="10"/>
+      <c r="H228" s="9"/>
     </row>
     <row r="229" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E229" s="8"/>
-      <c r="F229" s="11"/>
-      <c r="H229" s="10"/>
+      <c r="F229" s="10"/>
+      <c r="H229" s="9"/>
     </row>
     <row r="230" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E230" s="8"/>
-      <c r="F230" s="11"/>
-      <c r="H230" s="10"/>
+      <c r="F230" s="10"/>
+      <c r="H230" s="9"/>
     </row>
     <row r="231" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E231" s="8"/>
-      <c r="F231" s="11"/>
-      <c r="H231" s="10"/>
+      <c r="F231" s="10"/>
+      <c r="H231" s="9"/>
     </row>
     <row r="232" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E232" s="8"/>
-      <c r="F232" s="11"/>
-      <c r="H232" s="10"/>
+      <c r="F232" s="10"/>
+      <c r="H232" s="9"/>
     </row>
     <row r="233" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E233" s="8"/>
-      <c r="F233" s="11"/>
-      <c r="H233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="H233" s="9"/>
     </row>
     <row r="234" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E234" s="8"/>
-      <c r="F234" s="11"/>
-      <c r="H234" s="10"/>
+      <c r="F234" s="10"/>
+      <c r="H234" s="9"/>
     </row>
     <row r="235" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E235" s="8"/>
-      <c r="F235" s="11"/>
-      <c r="H235" s="10"/>
+      <c r="F235" s="10"/>
+      <c r="H235" s="9"/>
     </row>
     <row r="236" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E236" s="8"/>
-      <c r="F236" s="11"/>
-      <c r="H236" s="10"/>
+      <c r="F236" s="10"/>
+      <c r="H236" s="9"/>
     </row>
     <row r="237" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E237" s="8"/>
-      <c r="F237" s="11"/>
-      <c r="H237" s="10"/>
+      <c r="F237" s="10"/>
+      <c r="H237" s="9"/>
     </row>
     <row r="238" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E238" s="8"/>
-      <c r="F238" s="11"/>
-      <c r="H238" s="10"/>
+      <c r="F238" s="10"/>
+      <c r="H238" s="9"/>
     </row>
     <row r="239" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E239" s="8"/>
-      <c r="F239" s="11"/>
-      <c r="H239" s="10"/>
+      <c r="F239" s="10"/>
+      <c r="H239" s="9"/>
     </row>
     <row r="240" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E240" s="8"/>
-      <c r="F240" s="11"/>
-      <c r="H240" s="10"/>
+      <c r="F240" s="10"/>
+      <c r="H240" s="9"/>
     </row>
     <row r="241" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E241" s="8"/>
-      <c r="F241" s="11"/>
-      <c r="H241" s="10"/>
+      <c r="F241" s="10"/>
+      <c r="H241" s="9"/>
     </row>
     <row r="242" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E242" s="8"/>
-      <c r="F242" s="11"/>
-      <c r="H242" s="10"/>
+      <c r="F242" s="10"/>
+      <c r="H242" s="9"/>
     </row>
     <row r="243" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E243" s="8"/>
-      <c r="F243" s="11"/>
-      <c r="H243" s="10"/>
+      <c r="F243" s="10"/>
+      <c r="H243" s="9"/>
     </row>
     <row r="244" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E244" s="8"/>
-      <c r="F244" s="11"/>
-      <c r="H244" s="10"/>
+      <c r="F244" s="10"/>
+      <c r="H244" s="9"/>
     </row>
     <row r="245" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E245" s="8"/>
-      <c r="F245" s="11"/>
-      <c r="H245" s="10"/>
+      <c r="F245" s="10"/>
+      <c r="H245" s="9"/>
     </row>
     <row r="246" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E246" s="8"/>
-      <c r="F246" s="11"/>
-      <c r="H246" s="10"/>
+      <c r="F246" s="10"/>
+      <c r="H246" s="9"/>
     </row>
     <row r="247" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E247" s="8"/>
-      <c r="F247" s="11"/>
-      <c r="H247" s="10"/>
+      <c r="F247" s="10"/>
+      <c r="H247" s="9"/>
     </row>
     <row r="248" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E248" s="8"/>
-      <c r="F248" s="11"/>
-      <c r="H248" s="10"/>
+      <c r="F248" s="10"/>
+      <c r="H248" s="9"/>
     </row>
     <row r="249" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E249" s="8"/>
-      <c r="F249" s="11"/>
-      <c r="H249" s="10"/>
+      <c r="F249" s="10"/>
+      <c r="H249" s="9"/>
     </row>
     <row r="250" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E250" s="8"/>
-      <c r="F250" s="11"/>
-      <c r="H250" s="10"/>
+      <c r="F250" s="10"/>
+      <c r="H250" s="9"/>
     </row>
     <row r="251" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E251" s="8"/>
-      <c r="F251" s="11"/>
-      <c r="H251" s="10"/>
+      <c r="F251" s="10"/>
+      <c r="H251" s="9"/>
     </row>
     <row r="252" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E252" s="8"/>
-      <c r="F252" s="11"/>
-      <c r="H252" s="10"/>
+      <c r="F252" s="10"/>
+      <c r="H252" s="9"/>
     </row>
     <row r="253" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E253" s="8"/>
-      <c r="F253" s="11"/>
-      <c r="H253" s="10"/>
+      <c r="F253" s="10"/>
+      <c r="H253" s="9"/>
     </row>
     <row r="254" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E254" s="8"/>
-      <c r="F254" s="11"/>
-      <c r="H254" s="10"/>
+      <c r="F254" s="10"/>
+      <c r="H254" s="9"/>
     </row>
     <row r="255" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E255" s="8"/>
-      <c r="F255" s="11"/>
-      <c r="H255" s="10"/>
-    </row>
-    <row r="256" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E256" s="8"/>
-      <c r="F256" s="11"/>
-      <c r="H256" s="10"/>
-    </row>
-    <row r="257" spans="5:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E257" s="8"/>
-      <c r="F257" s="11"/>
-      <c r="H257" s="10"/>
+      <c r="F255" s="10"/>
+      <c r="H255" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
